--- a/medicine/Mort/Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre/Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre.xlsx
+++ b/medicine/Mort/Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre/Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_papales_hors_basilique_Saint-Pierre</t>
+          <t>Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici la liste des nécropoles papales situées hors de la basilique Saint-Pierre. Sur 265 papes, 116 ont souhaité être enterré ailleurs qu'à la basilique Saint-Pierre de Rome.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_papales_hors_basilique_Saint-Pierre</t>
+          <t>Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des 116 souverains pontifes inhumés hors basilique Saint-Pierre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clément Ier († 97/99) -  4e pape de 88 à 97
@@ -640,7 +654,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_n%C3%A9cropoles_papales_hors_basilique_Saint-Pierre</t>
+          <t>Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -660,7 +674,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">À Rome
+          <t>À Rome</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Basilique Saint-Clément-du-Latran (basilica di San Clemente al Laterano)
 Clément Ier (4e pape de 88 à 97)
 Catacombes de Rome :
@@ -774,8 +794,43 @@
 			Tombeau d’Innocent X (1644-1655) à l’église Sainte-Agnès en Agone.
 			Tombe de Pie IX (1846-1878) à la basilique Saint-Laurent-hors-les-Murs.
 			Tombeau de Léon XIII (1878-1903) à la basilique Saint-Jean-de-Latran.
-En Italie, en dehors de Rome
-à Ponza
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_n%C3%A9cropoles_papales_hors_basilique_Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lieux d'inhumation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En Italie, en dehors de Rome</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">à Ponza
 Silvère (58e pape de 536 à 537) sur l’île de Palmarola
 à Nonantola
 Adrien III (109e pape de 884 à 885) à l’abbaye Saint-Sylvestre (abbazia di Nonantola)
@@ -819,8 +874,43 @@
 			Tombe de Jean XXI (1276-1277) à la cathédrale Saint-Laurent de Viterbe.
 			Tombe de Célestin V (1294) à la basilique Sainte-Marie de Collemaggio à L’Aquila.
 			Monument funéraire de Benoît XI (1303-1304) à la basilique Saint-Dominique de Pérouse.
-En France
-Grégoire VI (153e pape de 1044 à 1046) à l’abbaye Saint-Pierre-et-Saint-Paul de Cluny
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_n%C3%A9cropoles_papales_hors_basilique_Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lieux d'inhumation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grégoire VI (153e pape de 1044 à 1046) à l’abbaye Saint-Pierre-et-Saint-Paul de Cluny
 Gélase II (161e pape de 1118 à 1119) à l’abbaye Saint-Pierre-et-Saint-Paul de Cluny
 Clément V (195e pape de 1305 à 1314) à la collégiale Notre-Dame d’Uzeste
 Jean XXII (196e pape de 1316 à 1334) à la cathédrale Notre-Dame-des-Doms d’Avignon
@@ -833,38 +923,75 @@
 			Tombeau de Clément VI (1342-1352) à l’abbaye Saint-Robert de La Chaise-Dieu.
 			Tombeau d’Innocent VI (1352-1362) à la chartreuse Notre-Dame-du-Val-de-Bénédiction à Villeneuve-lès-Avignon.
 			Tombe d’Urbain V (1362-1370) à l’abbaye Saint-Victor de Marseille.
-En Allemagne
-Clément II (149e pape de 1046 à 1047) à la cathédrale Saint-Pierre-et-Saint-Georges de Bamberg (Bamberger Dom St. Peter und St. Georg). Sa tombe est la seule tombe papale située au nord des Alpes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_n%C3%A9cropoles_papales_hors_basilique_Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lieux d'inhumation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En Allemagne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clément II (149e pape de 1046 à 1047) à la cathédrale Saint-Pierre-et-Saint-Georges de Bamberg (Bamberger Dom St. Peter und St. Georg). Sa tombe est la seule tombe papale située au nord des Alpes.
 			Tombe de Clément II (1046-1047) à la cathédrale de Bamberg.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_n%C3%A9cropoles_papales_hors_basilique_Saint-Pierre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_n%C3%A9cropoles_papales_hors_basilique_Saint-Pierre</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sépultures incertaines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici la liste des papes dont le lieu de sépulture est incertain :
 Libère (pape romain liste du IVe siècle) de la gens Savella, 38e pape de 22 mai 352 au 22 novembre 366, enseveli au cimetière de Prétextat, via Salaria, où il serait encore.
@@ -876,31 +1003,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_n%C3%A9cropoles_papales_hors_basilique_Saint-Pierre</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_nécropoles_papales_hors_basilique_Saint-Pierre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_n%C3%A9cropoles_papales_hors_basilique_Saint-Pierre</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des papes
 Liste détaillée des papes
